--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A8264-7CD0-4107-ABC2-6364E66FA598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF28CE56-B8B2-421B-9F78-894DC9024A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,6 +157,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>regInfo.json:
+{"Status":bool,
+"OID":long int,
+"log":String(失败原因)(NAN)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterInfo.json:
+{"OID":long int,
+"Password":String,
+"IP":String}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountInfoRequest.json:
+{"OID":long int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendListRequest.json:
+{"OID":long int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMessageRequest.json:
+{"SenderOID": ,"TargetOID": ,"Time": String,"Type": ,"Value": }
+（一个文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time为一个时间戳，精确到秒。
+"Type"备选项："Txt","Docu"。
+消息类型为文件时，Value为文件名。
+Time为String，采用MYSQL DATETIME的时间格式："YYYY-MM-DD hh:mm:ss"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.json:
+{"Status:","MID":int64, "Type": ,"SenderOID": ,"TargetOID": ,"Time": "Readed":bool, "Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetMessageResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息接收客户端反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageReadedRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息更改为“已读”请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageReadedResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息已读状态更改反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一样，"Status"表示消息已读状态是否更改成功，"Log"表示失败后的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message.json:
+{"MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileListRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取群文件列表请求（仅限群文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.json:
+{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.json:
+{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": ,"Readed": ,"Status": ,"Log": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.json:
+{"OID": "MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": ,"Status": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里OID表示发起该请求的用户。（下面同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountInfo.json:
+{"OID": ,
+"Name":String, "Instruction":String(NAN),
+"Email":String(NAN)，
+"Birth":DateString(年-月-日)(NAN),}
+HeadImage_{OID}.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterResult.json:
+{"OID": ,"IP": ,"Status":bool,
+"log":String(失败原因)(NAN)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.json:
+{"OID": ,"GroupOID": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupListRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupListResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取群聊列表申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取的群聊列表结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendList.json:
+{"OID": ,"FriendList":[{"FriendOID":  ,"Devide":  },...]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupListRequest.json:
+{"OID": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.json:
+{"OID": ,"GroupList": ["GroupOID": ,"Name": ],...}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupInfoRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取一个群聊信息申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupInfoRequest.json:
+{"OID": ,"GruopOID": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupInfoResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取一个群聊信息的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfoRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取一个用户（可以不是好友）的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取单个用户信息的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfoRequest.json:
+{"OID": ,"FriendOID": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfoResult.json:
+{"OID": ,"UserOID": ,"UserInfo": {"UserOID": ,"Name": ,"Instruction": ,"Email": ,"Birth": ,"Area": ,"HeadImage": }}
+User_HeadImage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupInfoResult.json:
+{"OID": ,"GroupOID": ,"GroupInfo": {"Name": ,"HeadImage": ,"Instruction": ,"MembersOIDs": []}}
+Group_HeadImage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfoResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileListResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取群文件列表结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.json:
+{"OID": ,"GroupOID": ,"Values":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values对应的是一个字符串列表，内容是每个文件的群文件检索路径，经过前端群文件管理器整理后显示出一个文件系统。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载一个文件的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileRequest:
+{"OID": ,"FilePath": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID为一个64位哈希值（转化为16进制字符串只有16位），可以唯一标识一条消息。
+Time依然为DATETIME类型。
+Readed为True表示消息已读，否则表示未读。
+消息发送成功后，Value会从原来的文件名，变为服务器上的文件路径名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>regInfo.json:
 {"Name":</t>
@@ -171,7 +415,7 @@
       </rPr>
       <t>String, "Instruction":String(NAN),
 "Email":String(NAN)，
-"Birth":DateString(年-月-日)(NAN),
+"Birth":String(YYYY-MM-DD)(NAN),
 "Password":String</t>
     </r>
     <r>
@@ -186,250 +430,6 @@
       <t>}
 HeadImage.png</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regInfo.json:
-{"Status":bool,
-"OID":long int,
-"log":String(失败原因)(NAN)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterInfo.json:
-{"OID":long int,
-"Password":String,
-"IP":String}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountInfoRequest.json:
-{"OID":long int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friendListRequest.json:
-{"OID":long int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendMessageRequest.json:
-{"SenderOID": ,"TargetOID": ,"Time": String,"Type": ,"Value": }
-（一个文件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time为一个时间戳，精确到秒。
-"Type"备选项："Txt","Docu"。
-消息类型为文件时，Value为文件名。
-Time为String，采用MYSQL DATETIME的时间格式："YYYY-MM-DD hh:mm:ss"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.json:
-{"Status:","MID":int64, "Type": ,"SenderOID": ,"TargetOID": ,"Time": "Readed":bool, "Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetMessageResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息接收客户端反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessageReadedRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息更改为“已读”请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessageReadedResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息已读状态更改反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一样，"Status"表示消息已读状态是否更改成功，"Log"表示失败后的日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message.json:
-{"MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileListRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取群文件列表请求（仅限群文件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request.json:
-{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request.json:
-{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": ,"Readed": ,"Status": ,"Log": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.json:
-{"OID": "MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": ,"Status": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里OID表示发起该请求的用户。（下面同）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountInfo.json:
-{"OID": ,
-"Name":String, "Instruction":String(NAN),
-"Email":String(NAN)，
-"Birth":DateString(年-月-日)(NAN),}
-HeadImage_{OID}.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterResult.json:
-{"OID": ,"IP": ,"Status":bool,
-"log":String(失败原因)(NAN)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request.json:
-{"OID": ,"GroupOID": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupListRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupListResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取群聊列表申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取的群聊列表结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friendList.json:
-{"OID": ,"FriendList":[{"FriendOID":  ,"Devide":  },...]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupListRequest.json:
-{"OID": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.json:
-{"OID": ,"GroupList": ["GroupOID": ,"Name": ],...}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupInfoRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取一个群聊信息申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupInfoRequest.json:
-{"OID": ,"GruopOID": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupInfoResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取一个群聊信息的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserInfoRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取一个用户（可以不是好友）的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取单个用户信息的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInfoRequest.json:
-{"OID": ,"FriendOID": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInfoResult.json:
-{"OID": ,"UserOID": ,"UserInfo": {"UserOID": ,"Name": ,"Instruction": ,"Email": ,"Birth": ,"Area": ,"HeadImage": }}
-User_HeadImage.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupInfoResult.json:
-{"OID": ,"GroupOID": ,"GroupInfo": {"Name": ,"HeadImage": ,"Instruction": ,"MembersOIDs": []}}
-Group_HeadImage.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserInfoResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileListResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取群文件列表结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.json:
-{"OID": ,"GroupOID": ,"Values":[]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values对应的是一个字符串列表，内容是每个文件的群文件检索路径，经过前端群文件管理器整理后显示出一个文件系统。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载一个文件的请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileRequest:
-{"OID": ,"FilePath": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID为一个64位哈希值（转化为16进制字符串只有16位），可以唯一标识一条消息。
-Time依然为DATETIME类型。
-Readed为True表示消息已读，否则表示未读。
-消息发送成功后，Value会从原来的文件名，变为服务器上的文件路径名。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -826,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -860,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -916,91 +916,91 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.25">
@@ -1014,10 +1014,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -1048,100 +1048,100 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course_2023_1\小学期_linux基础实习\Git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF28CE56-B8B2-421B-9F78-894DC9024A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056E5C1A-C312-4CC1-AEFC-3C571A0F04F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -770,18 +770,18 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.53515625" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.4609375" customWidth="1"/>
+    <col min="5" max="5" width="51.23046875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -798,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="113.15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -815,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -832,7 +832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -849,7 +849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -863,7 +863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -877,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="113.15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -891,7 +891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -905,7 +905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -919,7 +919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -933,7 +933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -947,7 +947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -961,7 +961,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -975,7 +975,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -989,7 +989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="84.9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -1157,7 +1157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1171,7 +1171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course_2023_1\小学期_linux基础实习\Git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056E5C1A-C312-4CC1-AEFC-3C571A0F04F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D246F-3FED-4529-9834-2E5D370AD7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,11 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result.json:
-{"Status:","MID":int64, "Type": ,"SenderOID": ,"TargetOID": ,"Time": "Readed":bool, "Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetMessageResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,31 +222,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>message.json:
-{"MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FileListRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获取群文件列表请求（仅限群文件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request.json:
-{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request.json:
-{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": ,"Readed": ,"Status": ,"Log": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.json:
-{"OID": "MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": ,"Status": }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,11 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request.json:
-{"OID": ,"GroupOID": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupListRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,11 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result.json:
-{"OID": ,"GroupList": ["GroupOID": ,"Name": ],...}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupInfoRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,18 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userInfoResult.json:
-{"OID": ,"UserOID": ,"UserInfo": {"UserOID": ,"Name": ,"Instruction": ,"Email": ,"Birth": ,"Area": ,"HeadImage": }}
-User_HeadImage.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupInfoResult.json:
-{"OID": ,"GroupOID": ,"GroupInfo": {"Name": ,"HeadImage": ,"Instruction": ,"MembersOIDs": []}}
-Group_HeadImage.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserInfoResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,11 +322,6 @@
   </si>
   <si>
     <t>获取群文件列表结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result.json:
-{"OID": ,"GroupOID": ,"Values":[]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,6 +378,58 @@
       <t>}
 HeadImage.png</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupListInfo.json:
+{"OID": ,"GroupList": ["GroupOID": ,"Name": ],...}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo.json:
+{"OID": ,"UserOID": ,"UserInfo": {"UserOID": ,"Name": ,"Instruction": ,"Email": ,"Birth": ,"Area": ,"HeadImage": }}
+User_HeadImage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupInfo.json:
+{"OID": ,"GroupOID": ,"GroupInfo": {"Name": ,"HeadImage": ,"Instruction": ,"MembersOIDs": []}}
+Group_HeadImage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMessageResult.json:
+{"Status:","MID":int64, "Type": ,"SenderOID": ,"TargetOID": ,"Time": "Readed":bool, "Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetMessageRequest.json:
+{"MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetMessageResult.json:
+{"OID": "MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": ,"Status": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageReadedRequest.json:
+{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageReadedResult.json:
+{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": ,"Readed": ,"Status": ,"Log": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileListRequest.json:
+{"OID": ,"GroupOID": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileListResult.json:
+{"OID": ,"GroupOID": ,"Values":[]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,18 +770,18 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.53515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.4609375" customWidth="1"/>
-    <col min="5" max="5" width="51.23046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -798,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="113.15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,13 +809,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -832,7 +832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -849,7 +849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -860,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -877,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="113.15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -888,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -905,7 +905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -916,94 +916,94 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="84.9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="70.75" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1031,13 +1031,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1048,100 +1048,100 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="56.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="56.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="70.75" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="42.45" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1171,7 +1171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D246F-3FED-4529-9834-2E5D370AD7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D0BA53-5D3C-41E8-83BE-2BEC32BEC92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RegRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SendMessageRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SendMessageResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,20 +146,6 @@
   </si>
   <si>
     <t>服务器发送一条消息给客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regInfo.json:
-{"Status":bool,
-"OID":long int,
-"log":String(失败原因)(NAN)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterInfo.json:
-{"OID":long int,
-"Password":String,
-"IP":String}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,9 +327,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>groupListInfo.json:
+{"OID": ,"GroupList": ["GroupOID": ,"Name": ],...}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo.json:
+{"OID": ,"UserOID": ,"UserInfo": {"UserOID": ,"Name": ,"Instruction": ,"Email": ,"Birth": ,"Area": ,"HeadImage": }}
+User_HeadImage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupInfo.json:
+{"OID": ,"GroupOID": ,"GroupInfo": {"Name": ,"HeadImage": ,"Instruction": ,"MembersOIDs": []}}
+Group_HeadImage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMessageResult.json:
+{"Status:","MID":int64, "Type": ,"SenderOID": ,"TargetOID": ,"Time": "Readed":bool, "Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetMessageRequest.json:
+{"MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetMessageResult.json:
+{"OID": "MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": ,"Status": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageReadedRequest.json:
+{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageReadedResult.json:
+{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": ,"Readed": ,"Status": ,"Log": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileListRequest.json:
+{"OID": ,"GroupOID": }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileListResult.json:
+{"OID": ,"GroupOID": ,"Values":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>regInfo.json:
-{"Name":</t>
+{
+"transType":"RegRequest",
+"Name":</t>
     </r>
     <r>
       <rPr>
@@ -381,55 +413,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>groupListInfo.json:
-{"OID": ,"GroupList": ["GroupOID": ,"Name": ],...}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInfo.json:
-{"OID": ,"UserOID": ,"UserInfo": {"UserOID": ,"Name": ,"Instruction": ,"Email": ,"Birth": ,"Area": ,"HeadImage": }}
-User_HeadImage.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupInfo.json:
-{"OID": ,"GroupOID": ,"GroupInfo": {"Name": ,"HeadImage": ,"Instruction": ,"MembersOIDs": []}}
-Group_HeadImage.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendMessageResult.json:
-{"Status:","MID":int64, "Type": ,"SenderOID": ,"TargetOID": ,"Time": "Readed":bool, "Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetMessageRequest.json:
-{"MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetMessageResult.json:
-{"OID": "MID":  ,"SenderOID": ,"TargetOID": ,"Time": ,"Type": ,"Value": ,"Status": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageReadedRequest.json:
-{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageReadedResult.json:
-{"OID": ,"MID": ,"SenderOID": ,"TargetOID": , Time: , "Type": ,"Value": ,"Readed": ,"Status": ,"Log": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileListRequest.json:
-{"OID": ,"GroupOID": }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileListResult.json:
-{"OID": ,"GroupOID": ,"Values":[]}</t>
+    <t>regInfo.json:
+{
+"transType":"RegResult",
+"Status":bool,
+"OID":long int,
+"log":String(失败原因)(NAN)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterInfo.json:
+{
+"transType": "EnterRequest",
+"OID":long int,
+"Password":String,
+"IP":String}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendTxtMessageRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容（注：所有json文件第一个都有一个"transType"属性，表示当前通讯讯息类型，这里就不一个一个加了）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,19 +775,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" customWidth="1"/>
     <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,357 +797,357 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D0BA53-5D3C-41E8-83BE-2BEC32BEC92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F2E8B-526F-4AD8-BD35-8952EDA65578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,15 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Name"长度不超过10个字符。
-"Instruction"长度不超过500个字符。
-"Email"需要符合Email命名规范:username@domain.com，其中username仅由数字字母下划线构成，domain.com为服务器域名。
-Birth必须按照格式来，否则为空。
-Password不低于6位，不多于20位。
-HeadImage.png不超过1MB。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Status为True则表示成功，否则失败，失败才会有"log"。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,6 +367,32 @@
   <si>
     <t>fileListResult.json:
 {"OID": ,"GroupOID": ,"Values":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regInfo.json:
+{
+"transType":"RegResult",
+"Status":bool,
+"OID":long int,
+"log":String(失败原因)(NAN)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterInfo.json:
+{
+"transType": "EnterRequest",
+"OID":long int,
+"Password":String,
+"IP":String}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendTxtMessageRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容（注：所有json文件第一个都有一个"transType"属性，表示当前通讯讯息类型，这里就不一个一个加了）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -395,7 +412,9 @@
       </rPr>
       <t>String, "Instruction":String(NAN),
 "Email":String(NAN)，
-"Birth":String(YYYY-MM-DD)(NAN),
+"Area" :String(NAN),
+"Sex":String(NAN),
+"BirthDay":String(YYYY-MM-DD)(NAN),
 "Password":String</t>
     </r>
     <r>
@@ -413,29 +432,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>regInfo.json:
-{
-"transType":"RegResult",
-"Status":bool,
-"OID":long int,
-"log":String(失败原因)(NAN)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterInfo.json:
-{
-"transType": "EnterRequest",
-"OID":long int,
-"Password":String,
-"IP":String}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendTxtMessageRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容（注：所有json文件第一个都有一个"transType"属性，表示当前通讯讯息类型，这里就不一个一个加了）</t>
+    <t>"Name"长度不超过10个字符。
+"Instruction"长度不超过500个字符。
+"Email"需要符合Email命名规范:username@domain.com，其中username仅由数字字母下划线构成，domain.com为服务器域名。
+BirthDay必须按照格式来，否则为空。
+Password不低于6位，不多于20位。
+HeadImage.png不超过1MB。
+Sex必须是男或者女或者其他或者空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +779,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -798,13 +801,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,10 +818,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
@@ -832,10 +835,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
@@ -849,10 +852,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -866,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -880,10 +883,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -894,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -902,13 +905,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -922,232 +925,232 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F2E8B-526F-4AD8-BD35-8952EDA65578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A8111-7603-4C91-9A77-C41E89D5753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,12 +441,17 @@
 Sex必须是男或者女或者其他或者空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>服务器与客户端的信息交换接口
+（采取.json文件作为传递主要方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +481,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -499,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,6 +530,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -790,370 +825,382 @@
     <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A8111-7603-4C91-9A77-C41E89D5753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2ED356-3F55-4CC2-A3F6-5A52E801C5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +444,12 @@
   <si>
     <t>服务器与客户端的信息交换接口
 （采取.json文件作为传递主要方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：json文件中只留下必填的
+transType,Name,Password，
+以及返回的OID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,17 +538,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -823,35 +835,36 @@
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.44140625" customWidth="1"/>
     <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -867,8 +880,11 @@
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="F3" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +900,9 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -902,7 +919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -916,7 +933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -930,7 +947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -944,7 +961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -958,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -972,7 +989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -986,7 +1003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1000,7 +1017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -1014,7 +1031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1028,7 +1045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1042,7 +1059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1198,8 +1215,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2ED356-3F55-4CC2-A3F6-5A52E801C5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E989016-7314-4B12-9E2F-76A41FC54439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,86 @@
     <t>修改：json文件中只留下必填的
 transType,Name,Password，
 以及返回的OID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-&gt;C(Sender)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请请求处理结果(申请信息是否成功发送)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-&gt;C(Target)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器发送申请请求到接收者的客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收者的客户端向服务器发送结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器向申请者发送申请加好友的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请者向服务器发送申请加好友的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendResultToApplicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendResultFromReceiverClientToServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRequestToReceiverClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessFriendRequestResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendFriendRequestToServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(Target)-&gt;S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1":,"OID2","RequestMessage",}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","Status","log"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","RequestMessage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","ReplyMessage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","Status","ReplyMessage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个status记录是否成功申请，比如是否存在账号或者其他报错信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个status记录是不是同意申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,11 +630,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,15 +903,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.44140625" customWidth="1"/>
     <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
@@ -880,7 +960,7 @@
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -900,7 +980,7 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1212,6 +1292,82 @@
       </c>
       <c r="D25" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E989016-7314-4B12-9E2F-76A41FC54439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D7008-CDF4-497A-B033-E5BDE6CB2A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D7008-CDF4-497A-B033-E5BDE6CB2A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB540F04-B525-42B8-9664-2401F42109EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,10 +517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"OID1","OID2","ReplyMessage"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"OID1","OID2","Status","ReplyMessage"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +526,10 @@
   </si>
   <si>
     <t>这个status记录是不是同意申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","ReplyMessage"，"Accepted"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1322,7 @@
         <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -1364,10 +1364,10 @@
         <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB540F04-B525-42B8-9664-2401F42109EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CBB4F6-4780-4859-8693-2C5B8624709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"OID1","OID2","ReplyMessage"，"Accepted"}</t>
+    <t>{"OID1","OID2","ReplyMessage"，"Accepted：bool"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +906,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\whatever\git\OnPointLink\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CBB4F6-4780-4859-8693-2C5B8624709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A3117-9406-4E3D-B4D0-311EA9C0B285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,30 @@
   </si>
   <si>
     <t>{"OID1","OID2","ReplyMessage"，"Accepted：bool"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端向服务器发送建立群的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OIDs":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildGroupRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendGroupMessageRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端发送群消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"GroupOID", "Type", "Value}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1368,6 +1392,34 @@
       </c>
       <c r="E30" s="2" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D7008-CDF4-497A-B033-E5BDE6CB2A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B79F6-079D-4876-9BD6-7FDF288DB9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,11 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>friendList.json:
-{"OID": ,"FriendList":[{"FriendOID":  ,"Devide":  },...]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>groupListRequest.json:
 {"OID": }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +380,6 @@
 "OID":long int,
 "Password":String,
 "IP":String}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendTxtMessageRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,6 +521,15 @@
   </si>
   <si>
     <t>这个status记录是不是同意申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendList.json:
+{"transType": ,"OID": ,"FriendList":[{"FriendOID":  ,"Devide":  },...]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendMessageRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
@@ -955,13 +955,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1055,7 +1055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -1094,68 +1094,68 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1181,10 +1181,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>42</v>
@@ -1229,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>39</v>
@@ -1260,114 +1260,114 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B79F6-079D-4876-9BD6-7FDF288DB9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85935AC8-BCF2-47E6-8384-4FEE4B61364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,19 +147,6 @@
   <si>
     <t>friendListRequest.json:
 {"OID":long int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendMessageRequest.json:
-{"SenderOID": ,"TargetOID": ,"Time": String,"Type": ,"Value": }
-（一个文件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time为一个时间戳，精确到秒。
-"Type"备选项："Txt","Docu"。
-消息类型为文件时，Value为文件名。
-Time为String，采用MYSQL DATETIME的时间格式："YYYY-MM-DD hh:mm:ss"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,12 +519,62 @@
     <t>SendMessageRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sendMessageRequest.json:
+{"SenderOID": ,"TargetOID": ,"Time": String,"Type": ,"Value": , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Content":String（由QByteArray.toBase64转化而来）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Time为一个时间戳，精确到秒。
+"Type"备选项："Txt","Docu"。
+消息类型为文件时，Value为文件名。
+Time为String，采用MYSQL DATETIME的时间格式："YYYY-MM-DD hh:mm:ss"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Content是以二进制编码存储的文件，通过QByteArray::toBase64方法转化为Qstring并存储。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +617,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -905,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -914,13 +959,13 @@
     <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.44140625" customWidth="1"/>
-    <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -938,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
@@ -955,13 +1000,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
@@ -975,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -993,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1010,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1038,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1066,96 +1111,96 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1164,10 +1209,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
@@ -1181,10 +1226,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -1198,176 +1243,176 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85935AC8-BCF2-47E6-8384-4FEE4B61364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BF8F18-926A-4D75-82F8-126C6CCC46E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <si>
     <r>
       <t xml:space="preserve">Time为一个时间戳，精确到秒。
-"Type"备选项："Txt","Docu"。
+"Type"备选项："Txt","Document"。
 消息类型为文件时，Value为文件名。
 Time为String，采用MYSQL DATETIME的时间格式："YYYY-MM-DD hh:mm:ss"
 </t>
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1308,7 +1308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BF8F18-926A-4D75-82F8-126C6CCC46E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D4EC0-D402-4FCA-9326-4807A2D1B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +567,19 @@
       </rPr>
       <t>Content是以二进制编码存储的文件，通过QByteArray::toBase64方法转化为Qstring并存储。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendCreateGroupRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送一个创建群聊申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendCreateGroupRequest.json
+{"OID": ,"memberOID":[String,String,String,...]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +693,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1414,6 +1433,21 @@
       <c r="E30" s="2" t="s">
         <v>101</v>
       </c>
+    </row>
+    <row r="31" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D4EC0-D402-4FCA-9326-4807A2D1B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383FC703-33E3-4E3B-8761-6666D7A81936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,19 @@
   <si>
     <t>friendListRequest.json:
 {"OID":long int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMessageRequest.json:
+{"SenderOID": ,"TargetOID": ,"Time": String,"Type": ,"Value": }
+（一个文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time为一个时间戳，精确到秒。
+"Type"备选项："Txt","Docu"。
+消息类型为文件时，Value为文件名。
+Time为String，采用MYSQL DATETIME的时间格式："YYYY-MM-DD hh:mm:ss"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,6 +234,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>friendList.json:
+{"OID": ,"FriendList":[{"FriendOID":  ,"Devide":  },...]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>groupListRequest.json:
 {"OID": }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +385,10 @@
 "OID":long int,
 "Password":String,
 "IP":String}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendTxtMessageRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,166 +442,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器与客户端的信息交换接口
-（采取.json文件作为传递主要方式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：json文件中只留下必填的
-transType,Name,Password，
-以及返回的OID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S-&gt;C(Sender)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请请求处理结果(申请信息是否成功发送)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S-&gt;C(Target)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器发送申请请求到接收者的客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收者的客户端向服务器发送结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器向申请者发送申请加好友的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请者向服务器发送申请加好友的请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendResultToApplicant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendResultFromReceiverClientToServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendRequestToReceiverClient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessFriendRequestResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendFriendRequestToServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C(Target)-&gt;S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"OID1":,"OID2","RequestMessage",}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"OID1","OID2","Status","log"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"OID1","OID2","RequestMessage"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"OID1","OID2","ReplyMessage"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"OID1","OID2","Status","ReplyMessage"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个status记录是否成功申请，比如是否存在账号或者其他报错信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个status记录是不是同意申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friendList.json:
-{"transType": ,"OID": ,"FriendList":[{"FriendOID":  ,"Devide":  },...]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendMessageRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sendMessageRequest.json:
-{"SenderOID": ,"TargetOID": ,"Time": String,"Type": ,"Value": , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Content":String（由QByteArray.toBase64转化而来）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Time为一个时间戳，精确到秒。
-"Type"备选项："Txt","Document"。
-消息类型为文件时，Value为文件名。
-Time为String，采用MYSQL DATETIME的时间格式："YYYY-MM-DD hh:mm:ss"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Content是以二进制编码存储的文件，通过QByteArray::toBase64方法转化为Qstring并存储。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendCreateGroupRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送一个创建群聊申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendCreateGroupRequest.json
-{"OID": ,"memberOID":[String,String,String,...]}</t>
+    <t>修改：json文件中只留下必填的transType,Name,Password，以及返回的OID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,32 +480,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -666,7 +503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,29 +513,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,492 +783,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.44140625" customWidth="1"/>
-    <col min="5" max="5" width="56.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.77734375" customWidth="1"/>
+    <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="10"/>
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>服务器与客户端的信息交换接口
 （采取.json文件作为传递主要方式）</t>
@@ -261,6 +261,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">sendMessageRequest.json:
 {"SenderOID": ,"TargetOID": ,"Time": String,"Type": ,"Value": , </t>
     </r>
@@ -312,6 +319,9 @@
     </r>
   </si>
   <si>
+    <t>没用上,这里没有sendtxtmessagerequest</t>
+  </si>
+  <si>
     <t>SendMessageResult</t>
   </si>
   <si>
@@ -524,7 +534,17 @@
   </si>
   <si>
     <t>SendGroupMessage
-{GroupOID,MemberOID,Content,Type,transType}</t>
+{GroupOID,SenderMemberOID,Content,Type,transType}</t>
+  </si>
+  <si>
+    <t>returnSendGroupMessage</t>
+  </si>
+  <si>
+    <t>反馈给客户端这条消息是否发送成功</t>
+  </si>
+  <si>
+    <t>returnSendGroupMessage
+{Status,log,GroupOID,SenderMemberOID,SendTime,Content,Type,transType}</t>
   </si>
 </sst>
 </file>
@@ -537,7 +557,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,13 +583,6 @@
     <font>
       <b/>
       <sz val="26"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1046,137 +1059,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,9 +1224,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1530,10 +1540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1780,7 +1790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" ht="100.8" spans="1:5">
+    <row r="17" ht="100.8" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1796,290 +1806,307 @@
       <c r="E17" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" ht="100.8" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="43.2" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="43.2" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="57.6" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="28.8" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="38.4" customHeight="1" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="38.4" customHeight="1" spans="1:4">
       <c r="A29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="57.6" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" ht="28.8" spans="1:4">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:4">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" ht="28.8" spans="1:4">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" ht="28.8" spans="1:4">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" ht="28.8" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" ht="43.2" spans="1:4">
       <c r="A38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="12" t="s">
         <v>122</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>123</v>
+      <c r="D38" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" ht="43.2" spans="1:4">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/数据库与客户端信息交换方式/信息交换类型.xlsx
+++ b/数据库与客户端信息交换方式/信息交换类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D4EC0-D402-4FCA-9326-4807A2D1B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F854A-59A5-486B-A9CB-6D9B2F0422EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,6 +682,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -693,12 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -983,13 +983,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1024,7 +1024,7 @@
       <c r="E3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1434,20 +1434,20 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
